--- a/resource_api/raporlar/dosyalar/uretilen_listesi.xlsx
+++ b/resource_api/raporlar/dosyalar/uretilen_listesi.xlsx
@@ -594,42 +594,42 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Toros Black</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Bush Hammered</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G2" s="10" t="n">
-        <v>1500</v>
+        <v>21.66</v>
       </c>
       <c r="H2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>1500</v>
+        <v>21.66</v>
       </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="10" t="n"/>
@@ -646,42 +646,42 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Baseboard</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Mastic Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G3" s="10" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="H3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="10" t="n"/>
@@ -698,32 +698,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Marble Skirting</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Pasha White</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>122,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G4" s="10" t="n">
@@ -750,42 +750,42 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G5" s="10" t="n">
-        <v>41.25</v>
+        <v>40</v>
       </c>
       <c r="H5" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>41.25</v>
       </c>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="10" t="n"/>
@@ -802,12 +802,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Skirting</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -817,27 +817,27 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G6" s="10" t="n">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="10" t="n"/>
@@ -854,42 +854,42 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Naturella Cream</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed&amp;Beveled</t>
+          <t>Polished&amp;Beveled</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G7" s="10" t="n">
-        <v>120</v>
+        <v>244.8</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>120</v>
+        <v>244.8</v>
       </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="10" t="n"/>
@@ -906,27 +906,27 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Blanco Perla</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Polished&amp;Beveled</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="G8" s="10" t="n">
-        <v>21.6</v>
+        <v>46.8</v>
       </c>
       <c r="H8" s="11" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="10" t="n"/>
@@ -958,42 +958,42 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>165,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G9" s="10" t="n">
-        <v>6.19</v>
+        <v>201.3</v>
       </c>
       <c r="H9" s="11" t="n">
-        <v>6.19</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0</v>
+        <v>201.3</v>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="10" t="n"/>
@@ -1015,22 +1015,22 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="G10" s="10" t="n">
-        <v>74.33</v>
+        <v>201.3</v>
       </c>
       <c r="H10" s="11" t="n">
-        <v>39.07</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>35.26</v>
+        <v>201.3</v>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="10" t="n"/>
@@ -1062,42 +1062,42 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>D2 Internal Doors White</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>150,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>150,0</t>
+          <t>210,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="G11" s="10" t="n">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="10" t="n"/>
@@ -1114,42 +1114,42 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>D3 Main Entrance Doors Grey</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Matt</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>250,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="G12" s="10" t="n">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="H12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="10" t="n"/>
@@ -1166,42 +1166,42 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Landings</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Yellow TS-Y-PZ15</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>220,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t xml:space="preserve">3,0 </t>
         </is>
       </c>
       <c r="G13" s="10" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>72.36</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>-0.36</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="10" t="n"/>
@@ -1218,42 +1218,42 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Silver Panel 3D</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>112,5</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t xml:space="preserve">2,0 </t>
         </is>
       </c>
       <c r="G14" s="10" t="n">
-        <v>19.44</v>
+        <v>16.2</v>
       </c>
       <c r="H14" s="11" t="n">
-        <v>19.44</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="10" t="n"/>
@@ -1270,42 +1270,42 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Light Philadelphia</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t xml:space="preserve">2,0 </t>
         </is>
       </c>
       <c r="G15" s="10" t="n">
-        <v>50.4</v>
+        <v>7.2</v>
       </c>
       <c r="H15" s="11" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="10" t="n"/>
@@ -1322,42 +1322,42 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Marble Moulding</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Naturella Cream</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bullnose</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t xml:space="preserve">2,0 </t>
         </is>
       </c>
       <c r="G16" s="10" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="10" t="n"/>
@@ -1374,42 +1374,42 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Glass Mosaic</t>
+          <t>Travertine Risers</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GL132647</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>119,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t xml:space="preserve">2,0 </t>
         </is>
       </c>
       <c r="G17" s="10" t="n">
-        <v>58.35</v>
+        <v>10</v>
       </c>
       <c r="H17" s="11" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.65</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="10" t="n"/>
@@ -1426,42 +1426,42 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>130,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t xml:space="preserve">2,0 </t>
         </is>
       </c>
       <c r="G18" s="10" t="n">
-        <v>38</v>
+        <v>6.5</v>
       </c>
       <c r="H18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>38</v>
+        <v>6.5</v>
       </c>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="10" t="n"/>
@@ -1478,42 +1478,42 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Yellow TB-Y-P26</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Splitface</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G19" s="10" t="n">
-        <v>12.36</v>
+        <v>3.75</v>
       </c>
       <c r="H19" s="11" t="n">
-        <v>12.96</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>-0.6</v>
+        <v>3.75</v>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="10" t="n"/>
@@ -1535,37 +1535,37 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut 3D</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G20" s="10" t="n">
-        <v>16.08</v>
+        <v>29</v>
       </c>
       <c r="H20" s="11" t="n">
-        <v>37.44</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>-21.36</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="10" t="n"/>
@@ -1582,42 +1582,42 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G21" s="10" t="n">
-        <v>313.2</v>
+        <v>74.33</v>
       </c>
       <c r="H21" s="11" t="n">
-        <v>20.88</v>
+        <v>78.14</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>292.32</v>
+        <v>-3.81</v>
       </c>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="10" t="n"/>
@@ -1639,37 +1639,37 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G22" s="10" t="n">
-        <v>8.039999999999999</v>
+        <v>31.63</v>
       </c>
       <c r="H22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>8.039999999999999</v>
+        <v>31.63</v>
       </c>
       <c r="J22" s="2" t="n"/>
       <c r="K22" s="10" t="n"/>
@@ -1696,32 +1696,32 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Half Bullnose</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>150,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>150,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G23" s="10" t="n">
-        <v>7</v>
+        <v>58.5</v>
       </c>
       <c r="H23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7</v>
+        <v>58.5</v>
       </c>
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="10" t="n"/>
@@ -1738,27 +1738,27 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Limestone Tile</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Jarusalem</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>23,0</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="G24" s="10" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="H24" s="11" t="n">
-        <v>391.07</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>300</v>
       </c>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="10" t="n"/>
@@ -1790,27 +1790,27 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Quarts Slabs</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Irlana</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>165,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>330,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="G25" s="10" t="n">
-        <v>15.3</v>
+        <v>54.12</v>
       </c>
       <c r="H25" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>15.3</v>
+        <v>54.12</v>
       </c>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="10" t="n"/>
@@ -1842,27 +1842,27 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Marble Coping</t>
+          <t>Quarts Slabs</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Irlana</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bullnose</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>165,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>330,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="G26" s="10" t="n">
-        <v>23</v>
+        <v>21.65</v>
       </c>
       <c r="H26" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>23</v>
+        <v>21.65</v>
       </c>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="10" t="n"/>
@@ -1894,27 +1894,27 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Quarts Slabs</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Truva Grey</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>165,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>330,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="G27" s="10" t="n">
-        <v>300</v>
+        <v>5.41</v>
       </c>
       <c r="H27" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>300</v>
+        <v>5.41</v>
       </c>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="10" t="n"/>
@@ -1946,42 +1946,42 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Skirting</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished&amp;Beveled</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G28" s="10" t="n">
-        <v>351.63</v>
+        <v>21.74</v>
       </c>
       <c r="H28" s="11" t="n">
-        <v>390.7</v>
+        <v>22.05</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>-39.07</v>
+        <v>-0.31</v>
       </c>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="10" t="n"/>
@@ -1998,42 +1998,42 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Skirting</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G29" s="10" t="n">
-        <v>275.17</v>
+        <v>22</v>
       </c>
       <c r="H29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>275.17</v>
+        <v>22</v>
       </c>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="10" t="n"/>
@@ -2050,42 +2050,42 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Yellow TS-Y-PZ15</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G30" s="10" t="n">
-        <v>523.55</v>
+        <v>72</v>
       </c>
       <c r="H30" s="11" t="n">
-        <v>273.49</v>
+        <v>72.36</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>250.06</v>
+        <v>-0.36</v>
       </c>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="10" t="n"/>
@@ -2102,42 +2102,42 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Moulding</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Naturella Cream</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G31" s="10" t="n">
-        <v>75.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H31" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>75.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="10" t="n"/>
@@ -2154,42 +2154,42 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G32" s="10" t="n">
-        <v>17.5</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H32" s="11" t="n">
-        <v>1056.76</v>
+        <v>0</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>-1039.26</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="10" t="n"/>
@@ -2206,42 +2206,42 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G33" s="10" t="n">
-        <v>78.14</v>
+        <v>16.08</v>
       </c>
       <c r="H33" s="11" t="n">
-        <v>0</v>
+        <v>16.56</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>78.14</v>
+        <v>-0.48</v>
       </c>
       <c r="J33" s="2" t="n"/>
       <c r="K33" s="10" t="n"/>
@@ -2258,42 +2258,42 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Yellow TB-Y-P26</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Splitface</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G34" s="10" t="n">
-        <v>361.68</v>
+        <v>12.36</v>
       </c>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>361.68</v>
+        <v>-0.6</v>
       </c>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="10" t="n"/>
@@ -2315,37 +2315,37 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>31,3</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G35" s="10" t="n">
-        <v>84.51000000000001</v>
+        <v>45</v>
       </c>
       <c r="H35" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I35" s="5" t="n">
-        <v>84.51000000000001</v>
       </c>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="10" t="n"/>
@@ -2362,42 +2362,42 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Travertine Sink</t>
+          <t>Marble Skirting</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>33,0</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>33,0</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G36" s="10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H36" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J36" s="2" t="n"/>
       <c r="K36" s="10" t="n"/>
@@ -2414,42 +2414,42 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Marble Threads</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Grooved&amp;Bevelled</t>
+          <t>Filled&amp;Honed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>33,0</t>
+          <t>23,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G37" s="10" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="H37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="10" t="n"/>
@@ -2466,12 +2466,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Ocean Grey</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2481,27 +2481,27 @@
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>33,0</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>86,3</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G38" s="10" t="n">
-        <v>4</v>
+        <v>133.77</v>
       </c>
       <c r="H38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>4</v>
+        <v>133.77</v>
       </c>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="10" t="n"/>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2533,27 +2533,27 @@
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>27,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>205,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G39" s="10" t="n">
-        <v>126.3</v>
+        <v>70</v>
       </c>
       <c r="H39" s="11" t="n">
-        <v>89.16</v>
+        <v>0</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>37.14</v>
+        <v>70</v>
       </c>
       <c r="J39" s="2" t="n"/>
       <c r="K39" s="10" t="n"/>
@@ -2570,42 +2570,42 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Skirting</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Toros Black</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Polished&amp;Beveled</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>28,0</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G40" s="10" t="n">
-        <v>98.09999999999999</v>
+        <v>10</v>
       </c>
       <c r="H40" s="11" t="n">
-        <v>98.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J40" s="2" t="n"/>
       <c r="K40" s="10" t="n"/>
@@ -2627,22 +2627,22 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="G41" s="10" t="n">
-        <v>454.2</v>
+        <v>50</v>
       </c>
       <c r="H41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>454.2</v>
+        <v>50</v>
       </c>
       <c r="J41" s="2" t="n"/>
       <c r="K41" s="10" t="n"/>
@@ -2674,42 +2674,42 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Pablo Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G42" s="10" t="n">
-        <v>19.57</v>
+        <v>20</v>
       </c>
       <c r="H42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>19.57</v>
+        <v>20</v>
       </c>
       <c r="J42" s="2" t="n"/>
       <c r="K42" s="10" t="n"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>43,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="G43" s="10" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="H43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="J43" s="2" t="n"/>
       <c r="K43" s="10" t="n"/>
@@ -2783,22 +2783,22 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="G44" s="10" t="n">
-        <v>50</v>
+        <v>109.98</v>
       </c>
       <c r="H44" s="11" t="n">
-        <v>50</v>
+        <v>110.7</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="10" t="n"/>
@@ -2830,27 +2830,27 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Tundra Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="G45" s="10" t="n">
-        <v>25</v>
+        <v>500.04</v>
       </c>
       <c r="H45" s="11" t="n">
-        <v>25</v>
+        <v>70.2</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>0</v>
+        <v>429.84</v>
       </c>
       <c r="J45" s="2" t="n"/>
       <c r="K45" s="10" t="n"/>
@@ -2882,42 +2882,42 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>41,0</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G46" s="10" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H46" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J46" s="2" t="n"/>
       <c r="K46" s="10" t="n"/>
@@ -2939,22 +2939,22 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G47" s="10" t="n">
-        <v>568.75</v>
+        <v>882.4299999999999</v>
       </c>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>234.42</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>568.75</v>
+        <v>648.01</v>
       </c>
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="10" t="n"/>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="G48" s="10" t="n">
-        <v>463.92</v>
+        <v>1041.57</v>
       </c>
       <c r="H48" s="11" t="n">
-        <v>38.66</v>
+        <v>2035.01</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>425.26</v>
+        <v>-993.4400000000001</v>
       </c>
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="10" t="n"/>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
@@ -3067,13 +3067,13 @@
         </is>
       </c>
       <c r="G49" s="10" t="n">
-        <v>970.27</v>
+        <v>118.89</v>
       </c>
       <c r="H49" s="11" t="n">
-        <v>966.5</v>
+        <v>0</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>3.77</v>
+        <v>118.89</v>
       </c>
       <c r="J49" s="2" t="n"/>
       <c r="K49" s="10" t="n"/>
@@ -3095,22 +3095,22 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="G50" s="10" t="n">
-        <v>736.65</v>
+        <v>361.68</v>
       </c>
       <c r="H50" s="11" t="n">
-        <v>734.54</v>
+        <v>0</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>2.11</v>
+        <v>361.68</v>
       </c>
       <c r="J50" s="2" t="n"/>
       <c r="K50" s="10" t="n"/>
@@ -3147,22 +3147,22 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
@@ -3171,13 +3171,13 @@
         </is>
       </c>
       <c r="G51" s="10" t="n">
-        <v>502.58</v>
+        <v>476.32</v>
       </c>
       <c r="H51" s="11" t="n">
-        <v>425.26</v>
+        <v>506.09</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>77.31999999999999</v>
+        <v>-29.77</v>
       </c>
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="10" t="n"/>
@@ -3194,27 +3194,27 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>Mini</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="G52" s="10" t="n">
-        <v>120.08</v>
+        <v>26.98</v>
       </c>
       <c r="H52" s="11" t="n">
-        <v>77.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>42.32</v>
+        <v>26.98</v>
       </c>
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="10" t="n"/>
@@ -3246,42 +3246,42 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Travertine Slabs</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>SLAB</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>SLAB</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G53" s="10" t="n">
-        <v>500</v>
+        <v>31.3</v>
       </c>
       <c r="H53" s="11" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="I53" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I53" s="5" t="n">
-        <v>500</v>
       </c>
       <c r="J53" s="2" t="n"/>
       <c r="K53" s="10" t="n"/>
@@ -3298,7 +3298,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Travertine Slabs</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>SLAB</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>SLAB</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G54" s="10" t="n">
-        <v>48</v>
+        <v>46.95</v>
       </c>
       <c r="H54" s="11" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0</v>
+        <v>46.95</v>
       </c>
       <c r="J54" s="2" t="n"/>
       <c r="K54" s="10" t="n"/>
@@ -3350,42 +3350,42 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Toros Black</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Polished&amp;Grooved</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>32,0</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G55" s="10" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H55" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J55" s="2" t="n"/>
       <c r="K55" s="10" t="n"/>
@@ -3402,42 +3402,42 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Skirting</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;2 Long Sides Bevelled</t>
+          <t>Mastic Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>33,0</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G56" s="10" t="n">
-        <v>35.64</v>
+        <v>270</v>
       </c>
       <c r="H56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>35.64</v>
+        <v>270</v>
       </c>
       <c r="J56" s="2" t="n"/>
       <c r="K56" s="10" t="n"/>
@@ -3459,37 +3459,37 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>34,0</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G57" s="10" t="n">
-        <v>32.66</v>
+        <v>51.73</v>
       </c>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>29.17</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>32.66</v>
+        <v>22.56</v>
       </c>
       <c r="J57" s="2" t="n"/>
       <c r="K57" s="10" t="n"/>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>34,0</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="G58" s="10" t="n">
-        <v>7.57</v>
+        <v>45</v>
       </c>
       <c r="H58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>7.57</v>
+        <v>45</v>
       </c>
       <c r="J58" s="2" t="n"/>
       <c r="K58" s="10" t="n"/>
@@ -3558,42 +3558,42 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Travertine Block</t>
+          <t>Travertine Molding</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;1,2m Side Bevelled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G59" s="10" t="n">
-        <v>3.6</v>
+        <v>26</v>
       </c>
       <c r="H59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>3.6</v>
+        <v>26</v>
       </c>
       <c r="J59" s="2" t="n"/>
       <c r="K59" s="10" t="n"/>
@@ -3610,42 +3610,42 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Glass Mosaic</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>FBZM10</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
+          <t>Shiny</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G60" s="10" t="n">
-        <v>10.45</v>
+        <v>160.84</v>
       </c>
       <c r="H60" s="11" t="n">
+        <v>160.84</v>
+      </c>
+      <c r="I60" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I60" s="5" t="n">
-        <v>10.45</v>
       </c>
       <c r="J60" s="2" t="n"/>
       <c r="K60" s="10" t="n"/>
@@ -3662,42 +3662,42 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Travertine Stairs</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Toros Black</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
+          <t>Bushhammered&amp;Brushed&amp;Bullnose</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G61" s="10" t="n">
-        <v>5</v>
+        <v>22.56</v>
       </c>
       <c r="H61" s="11" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="I61" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I61" s="5" t="n">
-        <v>5</v>
       </c>
       <c r="J61" s="2" t="n"/>
       <c r="K61" s="10" t="n"/>
@@ -3714,42 +3714,42 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Marble Blocks</t>
+          <t>Limestone Tile</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Tundra Blue</t>
+          <t>Perla</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Raw</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G62" s="10" t="n">
-        <v>10</v>
+        <v>903.04</v>
       </c>
       <c r="H62" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>10</v>
+        <v>903.04</v>
       </c>
       <c r="J62" s="2" t="n"/>
       <c r="K62" s="10" t="n"/>
@@ -3766,42 +3766,42 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Steps</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Blanco Perla</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t xml:space="preserve">3,0 </t>
         </is>
       </c>
       <c r="G63" s="10" t="n">
-        <v>59.48</v>
+        <v>7</v>
       </c>
       <c r="H63" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>59.48</v>
+        <v>7</v>
       </c>
       <c r="J63" s="2" t="n"/>
       <c r="K63" s="10" t="n"/>
@@ -3823,37 +3823,37 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Mastic Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G64" s="10" t="n">
-        <v>229.69</v>
+        <v>400</v>
       </c>
       <c r="H64" s="11" t="n">
-        <v>88.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>141.48</v>
+        <v>400</v>
       </c>
       <c r="J64" s="2" t="n"/>
       <c r="K64" s="10" t="n"/>
@@ -3870,42 +3870,42 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Naturella Cream</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G65" s="10" t="n">
-        <v>64.83</v>
+        <v>454.2</v>
       </c>
       <c r="H65" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>64.83</v>
+        <v>454.2</v>
       </c>
       <c r="J65" s="2" t="n"/>
       <c r="K65" s="10" t="n"/>
@@ -3922,42 +3922,42 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G66" s="10" t="n">
-        <v>92.67</v>
+        <v>130.76</v>
       </c>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>15.85</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>92.67</v>
+        <v>114.91</v>
       </c>
       <c r="J66" s="2" t="n"/>
       <c r="K66" s="10" t="n"/>
@@ -3974,42 +3974,42 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Pablo Cross Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G67" s="10" t="n">
-        <v>70.7</v>
+        <v>241.56</v>
       </c>
       <c r="H67" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>70.7</v>
+        <v>241.56</v>
       </c>
       <c r="J67" s="2" t="n"/>
       <c r="K67" s="10" t="n"/>
@@ -4026,42 +4026,42 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Blanco Esi</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G68" s="10" t="n">
-        <v>134.69</v>
+        <v>1350</v>
       </c>
       <c r="H68" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>134.69</v>
+        <v>1350</v>
       </c>
       <c r="J68" s="2" t="n"/>
       <c r="K68" s="10" t="n"/>
@@ -4083,37 +4083,37 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G69" s="10" t="n">
-        <v>37.31</v>
+        <v>42.1</v>
       </c>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>81.73</v>
       </c>
       <c r="I69" s="5" t="n">
-        <v>37.31</v>
+        <v>-39.63</v>
       </c>
       <c r="J69" s="2" t="n"/>
       <c r="K69" s="10" t="n"/>
@@ -4128,15 +4128,45 @@
       <c r="T69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="3" t="n"/>
-      <c r="C70" s="3" t="n"/>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="10" t="n"/>
-      <c r="H70" s="11" t="n"/>
-      <c r="I70" s="5" t="n"/>
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G70" s="10" t="n">
+        <v>317.04</v>
+      </c>
+      <c r="H70" s="11" t="n">
+        <v>317.04</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" s="2" t="n"/>
       <c r="K70" s="10" t="n"/>
       <c r="L70" s="11" t="n"/>
@@ -4150,15 +4180,45 @@
       <c r="T70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="3" t="n"/>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="10" t="n"/>
-      <c r="H71" s="11" t="n"/>
-      <c r="I71" s="5" t="n"/>
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Marble Copings</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Tundra Grey</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Sandblasted&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G71" s="10" t="n">
+        <v>80.52</v>
+      </c>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>80.52</v>
+      </c>
       <c r="J71" s="2" t="n"/>
       <c r="K71" s="10" t="n"/>
       <c r="L71" s="11" t="n"/>
@@ -4172,15 +4232,45 @@
       <c r="T71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="3" t="n"/>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="2" t="n"/>
-      <c r="F72" s="2" t="n"/>
-      <c r="G72" s="10" t="n"/>
-      <c r="H72" s="11" t="n"/>
-      <c r="I72" s="5" t="n"/>
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Marble Pavers</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Tundra Grey</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Sandblasted</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G72" s="10" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="H72" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>49.04</v>
+      </c>
       <c r="J72" s="2" t="n"/>
       <c r="K72" s="10" t="n"/>
       <c r="L72" s="11" t="n"/>
@@ -4194,15 +4284,45 @@
       <c r="T72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="3" t="n"/>
-      <c r="C73" s="3" t="n"/>
-      <c r="D73" s="3" t="n"/>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-      <c r="G73" s="10" t="n"/>
-      <c r="H73" s="11" t="n"/>
-      <c r="I73" s="5" t="n"/>
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Sink</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>42,0</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>42,0</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="G73" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="J73" s="2" t="n"/>
       <c r="K73" s="10" t="n"/>
       <c r="L73" s="11" t="n"/>
@@ -4216,15 +4336,45 @@
       <c r="T73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="3" t="n"/>
-      <c r="C74" s="3" t="n"/>
-      <c r="D74" s="3" t="n"/>
-      <c r="E74" s="2" t="n"/>
-      <c r="F74" s="2" t="n"/>
-      <c r="G74" s="10" t="n"/>
-      <c r="H74" s="11" t="n"/>
-      <c r="I74" s="5" t="n"/>
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>43,0</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>110,0</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G74" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="H74" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5" t="n">
+        <v>45</v>
+      </c>
       <c r="J74" s="2" t="n"/>
       <c r="K74" s="10" t="n"/>
       <c r="L74" s="11" t="n"/>
@@ -4238,15 +4388,45 @@
       <c r="T74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="3" t="n"/>
-      <c r="C75" s="3" t="n"/>
-      <c r="D75" s="3" t="n"/>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-      <c r="G75" s="10" t="n"/>
-      <c r="H75" s="11" t="n"/>
-      <c r="I75" s="5" t="n"/>
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G75" s="10" t="n">
+        <v>1282.06</v>
+      </c>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5" t="n">
+        <v>1282.06</v>
+      </c>
       <c r="J75" s="2" t="n"/>
       <c r="K75" s="10" t="n"/>
       <c r="L75" s="11" t="n"/>
@@ -4260,15 +4440,45 @@
       <c r="T75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="3" t="n"/>
-      <c r="C76" s="3" t="n"/>
-      <c r="D76" s="3" t="n"/>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-      <c r="G76" s="10" t="n"/>
-      <c r="H76" s="11" t="n"/>
-      <c r="I76" s="5" t="n"/>
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G76" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="H76" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5" t="n">
+        <v>180</v>
+      </c>
       <c r="J76" s="2" t="n"/>
       <c r="K76" s="10" t="n"/>
       <c r="L76" s="11" t="n"/>
@@ -4282,15 +4492,45 @@
       <c r="T76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="3" t="n"/>
-      <c r="C77" s="3" t="n"/>
-      <c r="D77" s="3" t="n"/>
-      <c r="E77" s="2" t="n"/>
-      <c r="F77" s="2" t="n"/>
-      <c r="G77" s="10" t="n"/>
-      <c r="H77" s="11" t="n"/>
-      <c r="I77" s="5" t="n"/>
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G77" s="10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <v>1.25</v>
+      </c>
       <c r="J77" s="2" t="n"/>
       <c r="K77" s="10" t="n"/>
       <c r="L77" s="11" t="n"/>
@@ -4304,15 +4544,45 @@
       <c r="T77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n"/>
-      <c r="B78" s="3" t="n"/>
-      <c r="C78" s="3" t="n"/>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="10" t="n"/>
-      <c r="H78" s="11" t="n"/>
-      <c r="I78" s="5" t="n"/>
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Ela</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="G78" s="10" t="n">
+        <v>428.94</v>
+      </c>
+      <c r="H78" s="11" t="n">
+        <v>237.15</v>
+      </c>
+      <c r="I78" s="5" t="n">
+        <v>191.79</v>
+      </c>
       <c r="J78" s="2" t="n"/>
       <c r="K78" s="10" t="n"/>
       <c r="L78" s="11" t="n"/>
@@ -4326,15 +4596,45 @@
       <c r="T78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n"/>
-      <c r="B79" s="3" t="n"/>
-      <c r="C79" s="3" t="n"/>
-      <c r="D79" s="3" t="n"/>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="10" t="n"/>
-      <c r="H79" s="11" t="n"/>
-      <c r="I79" s="5" t="n"/>
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>50,0</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>130,0</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,0 </t>
+        </is>
+      </c>
+      <c r="G79" s="10" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="5" t="n">
+        <v>84.5</v>
+      </c>
       <c r="J79" s="2" t="n"/>
       <c r="K79" s="10" t="n"/>
       <c r="L79" s="11" t="n"/>
@@ -4348,15 +4648,45 @@
       <c r="T79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n"/>
-      <c r="B80" s="3" t="n"/>
-      <c r="C80" s="3" t="n"/>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="10" t="n"/>
-      <c r="H80" s="11" t="n"/>
-      <c r="I80" s="5" t="n"/>
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>50,0</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>100,0</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G80" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H80" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J80" s="2" t="n"/>
       <c r="K80" s="10" t="n"/>
       <c r="L80" s="11" t="n"/>
@@ -4370,15 +4700,45 @@
       <c r="T80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n"/>
-      <c r="B81" s="3" t="n"/>
-      <c r="C81" s="3" t="n"/>
-      <c r="D81" s="3" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="10" t="n"/>
-      <c r="H81" s="11" t="n"/>
-      <c r="I81" s="5" t="n"/>
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G81" s="10" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="H81" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="I81" s="5" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J81" s="2" t="n"/>
       <c r="K81" s="10" t="n"/>
       <c r="L81" s="11" t="n"/>
@@ -4392,15 +4752,45 @@
       <c r="T81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n"/>
-      <c r="B82" s="3" t="n"/>
-      <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="n"/>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="10" t="n"/>
-      <c r="H82" s="11" t="n"/>
-      <c r="I82" s="5" t="n"/>
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G82" s="10" t="n">
+        <v>270</v>
+      </c>
+      <c r="H82" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5" t="n">
+        <v>270</v>
+      </c>
       <c r="J82" s="2" t="n"/>
       <c r="K82" s="10" t="n"/>
       <c r="L82" s="11" t="n"/>
@@ -4414,15 +4804,45 @@
       <c r="T82" s="7" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n"/>
-      <c r="B83" s="3" t="n"/>
-      <c r="C83" s="3" t="n"/>
-      <c r="D83" s="3" t="n"/>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="10" t="n"/>
-      <c r="H83" s="11" t="n"/>
-      <c r="I83" s="5" t="n"/>
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>Cement Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G83" s="10" t="n">
+        <v>763.2</v>
+      </c>
+      <c r="H83" s="11" t="n">
+        <v>576</v>
+      </c>
+      <c r="I83" s="5" t="n">
+        <v>187.2</v>
+      </c>
       <c r="J83" s="2" t="n"/>
       <c r="K83" s="10" t="n"/>
       <c r="L83" s="11" t="n"/>
@@ -4436,15 +4856,45 @@
       <c r="T83" s="7" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n"/>
-      <c r="B84" s="3" t="n"/>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="10" t="n"/>
-      <c r="H84" s="11" t="n"/>
-      <c r="I84" s="5" t="n"/>
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Marble Coping</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Naturella Cream</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Polished&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G84" s="10" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H84" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5" t="n">
+        <v>3.79</v>
+      </c>
       <c r="J84" s="2" t="n"/>
       <c r="K84" s="10" t="n"/>
       <c r="L84" s="11" t="n"/>
@@ -4458,15 +4908,45 @@
       <c r="T84" s="7" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n"/>
-      <c r="B85" s="3" t="n"/>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="10" t="n"/>
-      <c r="H85" s="11" t="n"/>
-      <c r="I85" s="5" t="n"/>
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Blanco Esi</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>120,0</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G85" s="10" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J85" s="2" t="n"/>
       <c r="K85" s="10" t="n"/>
       <c r="L85" s="11" t="n"/>
@@ -4480,15 +4960,45 @@
       <c r="T85" s="7" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="n"/>
-      <c r="C86" s="3" t="n"/>
-      <c r="D86" s="3" t="n"/>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="10" t="n"/>
-      <c r="H86" s="11" t="n"/>
-      <c r="I86" s="5" t="n"/>
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>130,0</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,0 </t>
+        </is>
+      </c>
+      <c r="G86" s="10" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="H86" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5" t="n">
+        <v>17.16</v>
+      </c>
       <c r="J86" s="2" t="n"/>
       <c r="K86" s="10" t="n"/>
       <c r="L86" s="11" t="n"/>
@@ -4502,15 +5012,45 @@
       <c r="T86" s="7" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n"/>
-      <c r="B87" s="3" t="n"/>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="10" t="n"/>
-      <c r="H87" s="11" t="n"/>
-      <c r="I87" s="5" t="n"/>
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>90,0</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G87" s="10" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="H87" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5" t="n">
+        <v>59.4</v>
+      </c>
       <c r="J87" s="2" t="n"/>
       <c r="K87" s="10" t="n"/>
       <c r="L87" s="11" t="n"/>
@@ -4524,15 +5064,45 @@
       <c r="T87" s="7" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="n"/>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="10" t="n"/>
-      <c r="H88" s="11" t="n"/>
-      <c r="I88" s="5" t="n"/>
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>100,0</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G88" s="10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H88" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J88" s="2" t="n"/>
       <c r="K88" s="10" t="n"/>
       <c r="L88" s="11" t="n"/>
@@ -4546,15 +5116,45 @@
       <c r="T88" s="7" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n"/>
-      <c r="B89" s="3" t="n"/>
-      <c r="C89" s="3" t="n"/>
-      <c r="D89" s="3" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="10" t="n"/>
-      <c r="H89" s="11" t="n"/>
-      <c r="I89" s="5" t="n"/>
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Equator White</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>120,0</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G89" s="10" t="n">
+        <v>610.5599999999999</v>
+      </c>
+      <c r="H89" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5" t="n">
+        <v>610.5599999999999</v>
+      </c>
       <c r="J89" s="2" t="n"/>
       <c r="K89" s="10" t="n"/>
       <c r="L89" s="11" t="n"/>
@@ -4568,15 +5168,45 @@
       <c r="T89" s="7" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="n"/>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="10" t="n"/>
-      <c r="H90" s="11" t="n"/>
-      <c r="I90" s="5" t="n"/>
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>Ocean Grey</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G90" s="10" t="n">
+        <v>200.19</v>
+      </c>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5" t="n">
+        <v>200.19</v>
+      </c>
       <c r="J90" s="2" t="n"/>
       <c r="K90" s="10" t="n"/>
       <c r="L90" s="11" t="n"/>
@@ -4590,15 +5220,45 @@
       <c r="T90" s="7" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n"/>
-      <c r="B91" s="3" t="n"/>
-      <c r="C91" s="3" t="n"/>
-      <c r="D91" s="3" t="n"/>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="10" t="n"/>
-      <c r="H91" s="11" t="n"/>
-      <c r="I91" s="5" t="n"/>
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G91" s="10" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5" t="n">
+        <v>14.88</v>
+      </c>
       <c r="J91" s="2" t="n"/>
       <c r="K91" s="10" t="n"/>
       <c r="L91" s="11" t="n"/>
@@ -4612,15 +5272,45 @@
       <c r="T91" s="7" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n"/>
-      <c r="B92" s="3" t="n"/>
-      <c r="C92" s="3" t="n"/>
-      <c r="D92" s="3" t="n"/>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="10" t="n"/>
-      <c r="H92" s="11" t="n"/>
-      <c r="I92" s="5" t="n"/>
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G92" s="10" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="H92" s="11" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="I92" s="5" t="n">
+        <v>174.51</v>
+      </c>
       <c r="J92" s="2" t="n"/>
       <c r="K92" s="10" t="n"/>
       <c r="L92" s="11" t="n"/>
@@ -4634,15 +5324,45 @@
       <c r="T92" s="7" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n"/>
-      <c r="B93" s="3" t="n"/>
-      <c r="C93" s="3" t="n"/>
-      <c r="D93" s="3" t="n"/>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="10" t="n"/>
-      <c r="H93" s="11" t="n"/>
-      <c r="I93" s="5" t="n"/>
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Pasha White</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>122,0</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G93" s="10" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5" t="n">
+        <v>20.09</v>
+      </c>
       <c r="J93" s="2" t="n"/>
       <c r="K93" s="10" t="n"/>
       <c r="L93" s="11" t="n"/>
@@ -4656,15 +5376,45 @@
       <c r="T93" s="7" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n"/>
-      <c r="B94" s="3" t="n"/>
-      <c r="C94" s="3" t="n"/>
-      <c r="D94" s="3" t="n"/>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="10" t="n"/>
-      <c r="H94" s="11" t="n"/>
-      <c r="I94" s="5" t="n"/>
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G94" s="10" t="n">
+        <v>1026.94</v>
+      </c>
+      <c r="H94" s="11" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="I94" s="5" t="n">
+        <v>997.17</v>
+      </c>
       <c r="J94" s="2" t="n"/>
       <c r="K94" s="10" t="n"/>
       <c r="L94" s="11" t="n"/>
@@ -4678,15 +5428,45 @@
       <c r="T94" s="7" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n"/>
-      <c r="B95" s="3" t="n"/>
-      <c r="C95" s="3" t="n"/>
-      <c r="D95" s="3" t="n"/>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="10" t="n"/>
-      <c r="H95" s="11" t="n"/>
-      <c r="I95" s="5" t="n"/>
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Honed</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G95" s="10" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="5" t="n">
+        <v>44.65</v>
+      </c>
       <c r="J95" s="2" t="n"/>
       <c r="K95" s="10" t="n"/>
       <c r="L95" s="11" t="n"/>
@@ -4700,15 +5480,45 @@
       <c r="T95" s="7" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n"/>
-      <c r="B96" s="3" t="n"/>
-      <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="n"/>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="10" t="n"/>
-      <c r="H96" s="11" t="n"/>
-      <c r="I96" s="5" t="n"/>
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Marble Skirting</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Toros Black</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Polished&amp;Beveled</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>63,0</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>100,0</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G96" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="J96" s="2" t="n"/>
       <c r="K96" s="10" t="n"/>
       <c r="L96" s="11" t="n"/>
@@ -4722,15 +5532,45 @@
       <c r="T96" s="7" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n"/>
-      <c r="B97" s="3" t="n"/>
-      <c r="C97" s="3" t="n"/>
-      <c r="D97" s="3" t="n"/>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="10" t="n"/>
-      <c r="H97" s="11" t="n"/>
-      <c r="I97" s="5" t="n"/>
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Corniches</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>110,0</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0 </t>
+        </is>
+      </c>
+      <c r="G97" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="H97" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="5" t="n">
+        <v>33</v>
+      </c>
       <c r="J97" s="2" t="n"/>
       <c r="K97" s="10" t="n"/>
       <c r="L97" s="11" t="n"/>
@@ -4744,15 +5584,45 @@
       <c r="T97" s="7" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n"/>
-      <c r="B98" s="3" t="n"/>
-      <c r="C98" s="3" t="n"/>
-      <c r="D98" s="3" t="n"/>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="10" t="n"/>
-      <c r="H98" s="11" t="n"/>
-      <c r="I98" s="5" t="n"/>
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Corniches</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>180,0</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0 </t>
+        </is>
+      </c>
+      <c r="G98" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="J98" s="2" t="n"/>
       <c r="K98" s="10" t="n"/>
       <c r="L98" s="11" t="n"/>
@@ -4766,15 +5636,45 @@
       <c r="T98" s="7" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n"/>
-      <c r="B99" s="3" t="n"/>
-      <c r="C99" s="3" t="n"/>
-      <c r="D99" s="3" t="n"/>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="10" t="n"/>
-      <c r="H99" s="11" t="n"/>
-      <c r="I99" s="5" t="n"/>
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Corniches</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>100,0</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0 </t>
+        </is>
+      </c>
+      <c r="G99" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5" t="n">
+        <v>52</v>
+      </c>
       <c r="J99" s="2" t="n"/>
       <c r="K99" s="10" t="n"/>
       <c r="L99" s="11" t="n"/>
@@ -4788,15 +5688,45 @@
       <c r="T99" s="7" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n"/>
-      <c r="B100" s="3" t="n"/>
-      <c r="C100" s="3" t="n"/>
-      <c r="D100" s="3" t="n"/>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="10" t="n"/>
-      <c r="H100" s="11" t="n"/>
-      <c r="I100" s="5" t="n"/>
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Skirting</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G100" s="10" t="n">
+        <v>1351.1</v>
+      </c>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="5" t="n">
+        <v>1351.1</v>
+      </c>
       <c r="J100" s="2" t="n"/>
       <c r="K100" s="10" t="n"/>
       <c r="L100" s="11" t="n"/>
@@ -4810,15 +5740,45 @@
       <c r="T100" s="7" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n"/>
-      <c r="B101" s="3" t="n"/>
-      <c r="C101" s="3" t="n"/>
-      <c r="D101" s="3" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="10" t="n"/>
-      <c r="H101" s="11" t="n"/>
-      <c r="I101" s="5" t="n"/>
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Landings</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Mesh</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>70,0</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>120,0</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3,0 </t>
+        </is>
+      </c>
+      <c r="G101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J101" s="2" t="n"/>
       <c r="K101" s="10" t="n"/>
       <c r="L101" s="11" t="n"/>
@@ -4832,15 +5792,45 @@
       <c r="T101" s="7" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n"/>
-      <c r="B102" s="3" t="n"/>
-      <c r="C102" s="3" t="n"/>
-      <c r="D102" s="3" t="n"/>
-      <c r="E102" s="2" t="n"/>
-      <c r="F102" s="2" t="n"/>
-      <c r="G102" s="10" t="n"/>
-      <c r="H102" s="11" t="n"/>
-      <c r="I102" s="5" t="n"/>
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Corniches</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>8,6</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>100,0</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0 </t>
+        </is>
+      </c>
+      <c r="G102" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="J102" s="2" t="n"/>
       <c r="K102" s="10" t="n"/>
       <c r="L102" s="11" t="n"/>
@@ -4854,15 +5844,45 @@
       <c r="T102" s="7" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n"/>
-      <c r="B103" s="3" t="n"/>
-      <c r="C103" s="3" t="n"/>
-      <c r="D103" s="3" t="n"/>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="10" t="n"/>
-      <c r="H103" s="11" t="n"/>
-      <c r="I103" s="5" t="n"/>
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>D2 Internal Doors White</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>80,0</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>250,0</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="G103" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="H103" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="5" t="n">
+        <v>27</v>
+      </c>
       <c r="J103" s="2" t="n"/>
       <c r="K103" s="10" t="n"/>
       <c r="L103" s="11" t="n"/>
@@ -4876,15 +5896,45 @@
       <c r="T103" s="7" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n"/>
-      <c r="B104" s="3" t="n"/>
-      <c r="C104" s="3" t="n"/>
-      <c r="D104" s="3" t="n"/>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="10" t="n"/>
-      <c r="H104" s="11" t="n"/>
-      <c r="I104" s="5" t="n"/>
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>Cappuccino Medium</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>80,0</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>150,0</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G104" s="10" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J104" s="2" t="n"/>
       <c r="K104" s="10" t="n"/>
       <c r="L104" s="11" t="n"/>
@@ -4898,15 +5948,45 @@
       <c r="T104" s="7" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n"/>
-      <c r="B105" s="3" t="n"/>
-      <c r="C105" s="3" t="n"/>
-      <c r="D105" s="3" t="n"/>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="10" t="n"/>
-      <c r="H105" s="11" t="n"/>
-      <c r="I105" s="5" t="n"/>
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>D1 Internal Doors White</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>90,0</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>250,0</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="G105" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H105" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="J105" s="2" t="n"/>
       <c r="K105" s="10" t="n"/>
       <c r="L105" s="11" t="n"/>
@@ -4920,15 +6000,45 @@
       <c r="T105" s="7" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n"/>
-      <c r="B106" s="3" t="n"/>
-      <c r="C106" s="3" t="n"/>
-      <c r="D106" s="3" t="n"/>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="10" t="n"/>
-      <c r="H106" s="11" t="n"/>
-      <c r="I106" s="5" t="n"/>
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Brushed</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>90,0</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>90,0</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G106" s="10" t="n">
+        <v>1074.87</v>
+      </c>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="5" t="n">
+        <v>1074.87</v>
+      </c>
       <c r="J106" s="2" t="n"/>
       <c r="K106" s="10" t="n"/>
       <c r="L106" s="11" t="n"/>
@@ -4942,15 +6052,45 @@
       <c r="T106" s="7" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n"/>
-      <c r="B107" s="3" t="n"/>
-      <c r="C107" s="3" t="n"/>
-      <c r="D107" s="3" t="n"/>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="10" t="n"/>
-      <c r="H107" s="11" t="n"/>
-      <c r="I107" s="5" t="n"/>
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G107" s="10" t="n">
+        <v>1121.14</v>
+      </c>
+      <c r="H107" s="11" t="n">
+        <v>328.61</v>
+      </c>
+      <c r="I107" s="5" t="n">
+        <v>792.53</v>
+      </c>
       <c r="J107" s="2" t="n"/>
       <c r="K107" s="10" t="n"/>
       <c r="L107" s="11" t="n"/>
@@ -4964,15 +6104,45 @@
       <c r="T107" s="7" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n"/>
-      <c r="B108" s="3" t="n"/>
-      <c r="C108" s="3" t="n"/>
-      <c r="D108" s="3" t="n"/>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="10" t="n"/>
-      <c r="H108" s="11" t="n"/>
-      <c r="I108" s="5" t="n"/>
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G108" s="10" t="n">
+        <v>67.66</v>
+      </c>
+      <c r="H108" s="11" t="n">
+        <v>67.66</v>
+      </c>
+      <c r="I108" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J108" s="2" t="n"/>
       <c r="K108" s="10" t="n"/>
       <c r="L108" s="11" t="n"/>
@@ -4986,15 +6156,45 @@
       <c r="T108" s="7" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n"/>
-      <c r="B109" s="3" t="n"/>
-      <c r="C109" s="3" t="n"/>
-      <c r="D109" s="3" t="n"/>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="10" t="n"/>
-      <c r="H109" s="11" t="n"/>
-      <c r="I109" s="5" t="n"/>
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Scott Rustic</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G109" s="10" t="n">
+        <v>351.71</v>
+      </c>
+      <c r="H109" s="11" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="I109" s="5" t="n">
+        <v>3.77</v>
+      </c>
       <c r="J109" s="2" t="n"/>
       <c r="K109" s="10" t="n"/>
       <c r="L109" s="11" t="n"/>
@@ -5008,15 +6208,45 @@
       <c r="T109" s="7" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n"/>
-      <c r="B110" s="3" t="n"/>
-      <c r="C110" s="3" t="n"/>
-      <c r="D110" s="3" t="n"/>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="10" t="n"/>
-      <c r="H110" s="11" t="n"/>
-      <c r="I110" s="5" t="n"/>
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G110" s="10" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="H110" s="11" t="n">
+        <v>182.89</v>
+      </c>
+      <c r="I110" s="5" t="n">
+        <v>-116.73</v>
+      </c>
       <c r="J110" s="2" t="n"/>
       <c r="K110" s="10" t="n"/>
       <c r="L110" s="11" t="n"/>
@@ -5030,15 +6260,45 @@
       <c r="T110" s="7" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n"/>
-      <c r="B111" s="3" t="n"/>
-      <c r="C111" s="3" t="n"/>
-      <c r="D111" s="3" t="n"/>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="10" t="n"/>
-      <c r="H111" s="11" t="n"/>
-      <c r="I111" s="5" t="n"/>
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G111" s="10" t="n">
+        <v>441.54</v>
+      </c>
+      <c r="H111" s="11" t="n">
+        <v>441.54</v>
+      </c>
+      <c r="I111" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J111" s="2" t="n"/>
       <c r="K111" s="10" t="n"/>
       <c r="L111" s="11" t="n"/>
@@ -5052,15 +6312,45 @@
       <c r="T111" s="7" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n"/>
-      <c r="B112" s="3" t="n"/>
-      <c r="C112" s="3" t="n"/>
-      <c r="D112" s="3" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="10" t="n"/>
-      <c r="H112" s="11" t="n"/>
-      <c r="I112" s="5" t="n"/>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G112" s="10" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="H112" s="11" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="I112" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J112" s="2" t="n"/>
       <c r="K112" s="10" t="n"/>
       <c r="L112" s="11" t="n"/>
@@ -5074,15 +6364,45 @@
       <c r="T112" s="7" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n"/>
-      <c r="B113" s="3" t="n"/>
-      <c r="C113" s="3" t="n"/>
-      <c r="D113" s="3" t="n"/>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="10" t="n"/>
-      <c r="H113" s="11" t="n"/>
-      <c r="I113" s="5" t="n"/>
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>Mini</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G113" s="10" t="n">
+        <v>120.08</v>
+      </c>
+      <c r="H113" s="11" t="n">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="I113" s="5" t="n">
+        <v>42.32</v>
+      </c>
       <c r="J113" s="2" t="n"/>
       <c r="K113" s="10" t="n"/>
       <c r="L113" s="11" t="n"/>
@@ -5096,15 +6416,37 @@
       <c r="T113" s="7" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n"/>
-      <c r="B114" s="3" t="n"/>
-      <c r="C114" s="3" t="n"/>
-      <c r="D114" s="3" t="n"/>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="10" t="n"/>
-      <c r="H114" s="11" t="n"/>
-      <c r="I114" s="5" t="n"/>
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>Numune</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Ozel</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>OZEL</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="J114" s="2" t="n"/>
       <c r="K114" s="10" t="n"/>
       <c r="L114" s="11" t="n"/>
@@ -5118,15 +6460,45 @@
       <c r="T114" s="7" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n"/>
-      <c r="B115" s="3" t="n"/>
-      <c r="C115" s="3" t="n"/>
-      <c r="D115" s="3" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="10" t="n"/>
-      <c r="H115" s="11" t="n"/>
-      <c r="I115" s="5" t="n"/>
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Slabs</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G115" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="H115" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" s="5" t="n">
+        <v>500</v>
+      </c>
       <c r="J115" s="2" t="n"/>
       <c r="K115" s="10" t="n"/>
       <c r="L115" s="11" t="n"/>
@@ -5140,15 +6512,45 @@
       <c r="T115" s="7" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n"/>
-      <c r="B116" s="3" t="n"/>
-      <c r="C116" s="3" t="n"/>
-      <c r="D116" s="3" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="10" t="n"/>
-      <c r="H116" s="11" t="n"/>
-      <c r="I116" s="5" t="n"/>
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Slabs</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G116" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" s="5" t="n">
+        <v>20</v>
+      </c>
       <c r="J116" s="2" t="n"/>
       <c r="K116" s="10" t="n"/>
       <c r="L116" s="11" t="n"/>
@@ -5162,15 +6564,45 @@
       <c r="T116" s="7" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n"/>
-      <c r="B117" s="3" t="n"/>
-      <c r="C117" s="3" t="n"/>
-      <c r="D117" s="3" t="n"/>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="10" t="n"/>
-      <c r="H117" s="11" t="n"/>
-      <c r="I117" s="5" t="n"/>
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Slabs</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G117" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="H117" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="I117" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J117" s="2" t="n"/>
       <c r="K117" s="10" t="n"/>
       <c r="L117" s="11" t="n"/>
@@ -5184,15 +6616,45 @@
       <c r="T117" s="7" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n"/>
-      <c r="B118" s="3" t="n"/>
-      <c r="C118" s="3" t="n"/>
-      <c r="D118" s="3" t="n"/>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="10" t="n"/>
-      <c r="H118" s="11" t="n"/>
-      <c r="I118" s="5" t="n"/>
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Marble Slabs</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>Equator White</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>SLAB</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G118" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="H118" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="5" t="n">
+        <v>65</v>
+      </c>
       <c r="J118" s="2" t="n"/>
       <c r="K118" s="10" t="n"/>
       <c r="L118" s="11" t="n"/>
@@ -5206,15 +6668,45 @@
       <c r="T118" s="7" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n"/>
-      <c r="B119" s="3" t="n"/>
-      <c r="C119" s="3" t="n"/>
-      <c r="D119" s="3" t="n"/>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="10" t="n"/>
-      <c r="H119" s="11" t="n"/>
-      <c r="I119" s="5" t="n"/>
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished&amp;Set1</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G119" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="H119" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="5" t="n">
+        <v>51</v>
+      </c>
       <c r="J119" s="2" t="n"/>
       <c r="K119" s="10" t="n"/>
       <c r="L119" s="11" t="n"/>
@@ -5228,15 +6720,45 @@
       <c r="T119" s="7" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n"/>
-      <c r="B120" s="3" t="n"/>
-      <c r="C120" s="3" t="n"/>
-      <c r="D120" s="3" t="n"/>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="10" t="n"/>
-      <c r="H120" s="11" t="n"/>
-      <c r="I120" s="5" t="n"/>
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished&amp;Set2</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G120" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="J120" s="2" t="n"/>
       <c r="K120" s="10" t="n"/>
       <c r="L120" s="11" t="n"/>
@@ -5250,15 +6772,45 @@
       <c r="T120" s="7" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n"/>
-      <c r="B121" s="3" t="n"/>
-      <c r="C121" s="3" t="n"/>
-      <c r="D121" s="3" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="10" t="n"/>
-      <c r="H121" s="11" t="n"/>
-      <c r="I121" s="5" t="n"/>
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Slabs</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5,0 </t>
+        </is>
+      </c>
+      <c r="G121" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H121" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="J121" s="2" t="n"/>
       <c r="K121" s="10" t="n"/>
       <c r="L121" s="11" t="n"/>
@@ -5272,15 +6824,45 @@
       <c r="T121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n"/>
-      <c r="B122" s="3" t="n"/>
-      <c r="C122" s="3" t="n"/>
-      <c r="D122" s="3" t="n"/>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="10" t="n"/>
-      <c r="H122" s="11" t="n"/>
-      <c r="I122" s="5" t="n"/>
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed&amp;Beveled</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G122" s="10" t="n">
+        <v>206</v>
+      </c>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="5" t="n">
+        <v>206</v>
+      </c>
       <c r="J122" s="2" t="n"/>
       <c r="K122" s="10" t="n"/>
       <c r="L122" s="11" t="n"/>
@@ -5294,15 +6876,45 @@
       <c r="T122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n"/>
-      <c r="B123" s="3" t="n"/>
-      <c r="C123" s="3" t="n"/>
-      <c r="D123" s="3" t="n"/>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="10" t="n"/>
-      <c r="H123" s="11" t="n"/>
-      <c r="I123" s="5" t="n"/>
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Wardrobe</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Wardrobe</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G123" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H123" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="J123" s="2" t="n"/>
       <c r="K123" s="10" t="n"/>
       <c r="L123" s="11" t="n"/>
@@ -5316,15 +6928,45 @@
       <c r="T123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n"/>
-      <c r="B124" s="3" t="n"/>
-      <c r="C124" s="3" t="n"/>
-      <c r="D124" s="3" t="n"/>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="10" t="n"/>
-      <c r="H124" s="11" t="n"/>
-      <c r="I124" s="5" t="n"/>
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G124" s="10" t="n">
+        <v>272.61</v>
+      </c>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="5" t="n">
+        <v>272.61</v>
+      </c>
       <c r="J124" s="2" t="n"/>
       <c r="K124" s="10" t="n"/>
       <c r="L124" s="11" t="n"/>
@@ -5338,15 +6980,45 @@
       <c r="T124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n"/>
-      <c r="B125" s="3" t="n"/>
-      <c r="C125" s="3" t="n"/>
-      <c r="D125" s="3" t="n"/>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="10" t="n"/>
-      <c r="H125" s="11" t="n"/>
-      <c r="I125" s="5" t="n"/>
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Scott Rustic</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G125" s="10" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H125" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="5" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J125" s="2" t="n"/>
       <c r="K125" s="10" t="n"/>
       <c r="L125" s="11" t="n"/>
@@ -5360,15 +7032,45 @@
       <c r="T125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n"/>
-      <c r="B126" s="3" t="n"/>
-      <c r="C126" s="3" t="n"/>
-      <c r="D126" s="3" t="n"/>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="10" t="n"/>
-      <c r="H126" s="11" t="n"/>
-      <c r="I126" s="5" t="n"/>
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>Fan</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G126" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H126" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I126" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J126" s="2" t="n"/>
       <c r="K126" s="10" t="n"/>
       <c r="L126" s="11" t="n"/>
@@ -5382,15 +7084,45 @@
       <c r="T126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n"/>
-      <c r="B127" s="3" t="n"/>
-      <c r="C127" s="3" t="n"/>
-      <c r="D127" s="3" t="n"/>
-      <c r="E127" s="2" t="n"/>
-      <c r="F127" s="2" t="n"/>
-      <c r="G127" s="10" t="n"/>
-      <c r="H127" s="11" t="n"/>
-      <c r="I127" s="5" t="n"/>
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>Cooker</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G127" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H127" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I127" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J127" s="2" t="n"/>
       <c r="K127" s="10" t="n"/>
       <c r="L127" s="11" t="n"/>
@@ -5404,15 +7136,45 @@
       <c r="T127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n"/>
-      <c r="B128" s="3" t="n"/>
-      <c r="C128" s="3" t="n"/>
-      <c r="D128" s="3" t="n"/>
-      <c r="E128" s="2" t="n"/>
-      <c r="F128" s="2" t="n"/>
-      <c r="G128" s="10" t="n"/>
-      <c r="H128" s="11" t="n"/>
-      <c r="I128" s="5" t="n"/>
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>Oven</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G128" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H128" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I128" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J128" s="2" t="n"/>
       <c r="K128" s="10" t="n"/>
       <c r="L128" s="11" t="n"/>
@@ -5426,15 +7188,45 @@
       <c r="T128" s="7" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n"/>
-      <c r="B129" s="3" t="n"/>
-      <c r="C129" s="3" t="n"/>
-      <c r="D129" s="3" t="n"/>
-      <c r="E129" s="2" t="n"/>
-      <c r="F129" s="2" t="n"/>
-      <c r="G129" s="10" t="n"/>
-      <c r="H129" s="11" t="n"/>
-      <c r="I129" s="5" t="n"/>
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Microvawe Oven</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G129" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H129" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I129" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J129" s="2" t="n"/>
       <c r="K129" s="10" t="n"/>
       <c r="L129" s="11" t="n"/>
@@ -5448,15 +7240,45 @@
       <c r="T129" s="7" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n"/>
-      <c r="B130" s="3" t="n"/>
-      <c r="C130" s="3" t="n"/>
-      <c r="D130" s="3" t="n"/>
-      <c r="E130" s="2" t="n"/>
-      <c r="F130" s="2" t="n"/>
-      <c r="G130" s="10" t="n"/>
-      <c r="H130" s="11" t="n"/>
-      <c r="I130" s="5" t="n"/>
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>Refrigerator</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G130" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H130" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I130" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J130" s="2" t="n"/>
       <c r="K130" s="10" t="n"/>
       <c r="L130" s="11" t="n"/>
@@ -5470,15 +7292,45 @@
       <c r="T130" s="7" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n"/>
-      <c r="B131" s="3" t="n"/>
-      <c r="C131" s="3" t="n"/>
-      <c r="D131" s="3" t="n"/>
-      <c r="E131" s="2" t="n"/>
-      <c r="F131" s="2" t="n"/>
-      <c r="G131" s="10" t="n"/>
-      <c r="H131" s="11" t="n"/>
-      <c r="I131" s="5" t="n"/>
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Sink&amp;Faucet</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G131" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H131" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I131" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="J131" s="2" t="n"/>
       <c r="K131" s="10" t="n"/>
       <c r="L131" s="11" t="n"/>
@@ -5492,15 +7344,45 @@
       <c r="T131" s="7" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n"/>
-      <c r="B132" s="3" t="n"/>
-      <c r="C132" s="3" t="n"/>
-      <c r="D132" s="3" t="n"/>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
-      <c r="G132" s="10" t="n"/>
-      <c r="H132" s="11" t="n"/>
-      <c r="I132" s="5" t="n"/>
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>Kitchen Cabinets</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="G132" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="J132" s="2" t="n"/>
       <c r="K132" s="10" t="n"/>
       <c r="L132" s="11" t="n"/>
@@ -5514,15 +7396,45 @@
       <c r="T132" s="7" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n"/>
-      <c r="B133" s="3" t="n"/>
-      <c r="C133" s="3" t="n"/>
-      <c r="D133" s="3" t="n"/>
-      <c r="E133" s="2" t="n"/>
-      <c r="F133" s="2" t="n"/>
-      <c r="G133" s="10" t="n"/>
-      <c r="H133" s="11" t="n"/>
-      <c r="I133" s="5" t="n"/>
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Quartz Slab</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Hygassos</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G133" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H133" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="5" t="n">
+        <v>60</v>
+      </c>
       <c r="J133" s="2" t="n"/>
       <c r="K133" s="10" t="n"/>
       <c r="L133" s="11" t="n"/>
@@ -5536,15 +7448,45 @@
       <c r="T133" s="7" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n"/>
-      <c r="B134" s="3" t="n"/>
-      <c r="C134" s="3" t="n"/>
-      <c r="D134" s="3" t="n"/>
-      <c r="E134" s="2" t="n"/>
-      <c r="F134" s="2" t="n"/>
-      <c r="G134" s="10" t="n"/>
-      <c r="H134" s="11" t="n"/>
-      <c r="I134" s="5" t="n"/>
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Stairs</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Angeled</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G134" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="J134" s="2" t="n"/>
       <c r="K134" s="10" t="n"/>
       <c r="L134" s="11" t="n"/>
@@ -5558,15 +7500,45 @@
       <c r="T134" s="7" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n"/>
-      <c r="B135" s="3" t="n"/>
-      <c r="C135" s="3" t="n"/>
-      <c r="D135" s="3" t="n"/>
-      <c r="E135" s="2" t="n"/>
-      <c r="F135" s="2" t="n"/>
-      <c r="G135" s="10" t="n"/>
-      <c r="H135" s="11" t="n"/>
-      <c r="I135" s="5" t="n"/>
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Risers</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G135" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H135" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="J135" s="2" t="n"/>
       <c r="K135" s="10" t="n"/>
       <c r="L135" s="11" t="n"/>
@@ -5580,15 +7552,45 @@
       <c r="T135" s="7" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n"/>
-      <c r="B136" s="3" t="n"/>
-      <c r="C136" s="3" t="n"/>
-      <c r="D136" s="3" t="n"/>
-      <c r="E136" s="2" t="n"/>
-      <c r="F136" s="2" t="n"/>
-      <c r="G136" s="10" t="n"/>
-      <c r="H136" s="11" t="n"/>
-      <c r="I136" s="5" t="n"/>
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Arches</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Straight</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G136" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="J136" s="2" t="n"/>
       <c r="K136" s="10" t="n"/>
       <c r="L136" s="11" t="n"/>
@@ -5602,15 +7604,45 @@
       <c r="T136" s="7" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n"/>
-      <c r="B137" s="3" t="n"/>
-      <c r="C137" s="3" t="n"/>
-      <c r="D137" s="3" t="n"/>
-      <c r="E137" s="2" t="n"/>
-      <c r="F137" s="2" t="n"/>
-      <c r="G137" s="10" t="n"/>
-      <c r="H137" s="11" t="n"/>
-      <c r="I137" s="5" t="n"/>
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Travertine Arches</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Mastic Filled&amp;Polished&amp;Curved</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G137" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H137" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="J137" s="2" t="n"/>
       <c r="K137" s="10" t="n"/>
       <c r="L137" s="11" t="n"/>
@@ -5624,15 +7656,45 @@
       <c r="T137" s="7" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n"/>
-      <c r="B138" s="3" t="n"/>
-      <c r="C138" s="3" t="n"/>
-      <c r="D138" s="3" t="n"/>
-      <c r="E138" s="2" t="n"/>
-      <c r="F138" s="2" t="n"/>
-      <c r="G138" s="10" t="n"/>
-      <c r="H138" s="11" t="n"/>
-      <c r="I138" s="5" t="n"/>
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Stone Adhesive</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>Kalekim</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Ozel</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G138" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" s="5" t="n">
+        <v>60</v>
+      </c>
       <c r="J138" s="2" t="n"/>
       <c r="K138" s="10" t="n"/>
       <c r="L138" s="11" t="n"/>
